--- a/Documents/Shopping List.xlsx
+++ b/Documents/Shopping List.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\AERO3760-Space-Engineering-2\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11990"/>
+    <workbookView xWindow="10940" yWindow="0" windowWidth="14620" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -315,12 +310,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -332,10 +331,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -607,7 +610,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -617,26 +620,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="84.453125" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.26953125" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84.5" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -668,7 +671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -701,12 +704,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -732,7 +735,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
@@ -740,7 +743,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -756,7 +759,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5">
@@ -764,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -783,7 +786,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5">
@@ -791,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>54</v>
       </c>
@@ -809,14 +812,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="C17" s="4"/>
       <c r="D17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
         <v>69</v>
       </c>
@@ -834,14 +837,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="C19" s="4"/>
       <c r="D19" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -871,14 +874,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="C21" s="4"/>
       <c r="D21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -905,7 +908,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="C23" s="4"/>
       <c r="D23" s="5">
         <f t="shared" si="0"/>
@@ -915,7 +918,7 @@
       <c r="H23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -940,7 +943,7 @@
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="C25" s="4"/>
       <c r="D25" s="5">
         <f t="shared" si="0"/>
@@ -950,7 +953,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="3" t="s">
         <v>48</v>
       </c>
@@ -974,7 +977,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="C27" s="4"/>
       <c r="D27" s="5">
         <f t="shared" si="0"/>
@@ -984,7 +987,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="3" t="s">
         <v>70</v>
       </c>
@@ -1012,14 +1015,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="C29" s="4"/>
       <c r="D29" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
@@ -1046,14 +1049,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="C31" s="4"/>
       <c r="D31" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="3" t="s">
         <v>38</v>
       </c>
@@ -1069,14 +1072,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="C33" s="4"/>
       <c r="D33" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
@@ -1092,14 +1095,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="C35" s="4"/>
       <c r="D35" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -1109,14 +1112,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="C37" s="4"/>
       <c r="D37" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1126,14 +1129,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="C39" s="4"/>
       <c r="D39" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="3" t="s">
         <v>9</v>
       </c>
@@ -1151,13 +1154,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="D41" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1166,13 +1169,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="D43" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -1196,13 +1199,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="D45" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>67</v>
       </c>
@@ -1220,12 +1223,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="E47" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
         <v>25</v>
       </c>
@@ -1239,6 +1242,11 @@
     <hyperlink ref="E30" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>